--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\FR1PEPF000013A3\EXCELCNV\b2533efa-3124-4889-a846-8594f2284b12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACF85473-D0D0-4AE3-B8F0-8C2BC57FAA96}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10057AF9-D249-4967-89B4-5FFF5EF1B427}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Name:</t>
   </si>
@@ -87,13 +87,16 @@
   </si>
   <si>
     <t>Projekt Kickoff Meeting.</t>
+  </si>
+  <si>
+    <t>Grundstruktur des GitHub Repositorys aufgebaut.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -442,13 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1BBFA-3617-4C66-8A60-3FE210797165}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
@@ -457,7 +460,7 @@
     <col min="5" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -465,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -473,7 +476,7 @@
         <v>6003331</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -481,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -489,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -503,7 +506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45574</v>
       </c>
@@ -517,7 +520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45578</v>
       </c>
@@ -531,7 +534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>45579</v>
       </c>
@@ -543,6 +546,20 @@
       </c>
       <c r="D9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45579</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -554,9 +571,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,22 +724,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4C286-40F8-430F-9A60-A6D20F13F078}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4C286-40F8-430F-9A60-A6D20F13F078}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10057AF9-D249-4967-89B4-5FFF5EF1B427}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC855CD-C65A-4211-BFCF-A8D04BA74CAF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Name:</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Grundstruktur des GitHub Repositorys aufgebaut.</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>Weekly-Summup-01 Meeting.</t>
+  </si>
+  <si>
+    <t>Zusammenfassung Weekly-Summup-01 erstellt.</t>
+  </si>
+  <si>
+    <t>Recherche bezüglich des Scrum Vorgehensmodells.</t>
   </si>
 </sst>
 </file>
@@ -185,6 +197,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1BBFA-3617-4C66-8A60-3FE210797165}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -562,6 +578,48 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -571,12 +629,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,15 +779,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -756,10 +815,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC855CD-C65A-4211-BFCF-A8D04BA74CAF}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{123D77DE-D403-4F47-A20C-9D383AB1E48A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Name:</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Recherche bezüglich des Scrum Vorgehensmodells.</t>
+  </si>
+  <si>
+    <t>Mail an Management &amp; Teams Aufgabenplaner aktualisiert.</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1BBFA-3617-4C66-8A60-3FE210797165}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -620,6 +623,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -635,6 +652,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -778,15 +804,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
   <ds:schemaRefs>
@@ -797,6 +814,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4C286-40F8-430F-9A60-A6D20F13F078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -812,12 +837,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{123D77DE-D403-4F47-A20C-9D383AB1E48A}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B52C2AE-B08E-4022-948B-7BA2C04DFD1A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
+    <workbookView xWindow="38280" yWindow="5190" windowWidth="29040" windowHeight="15720" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Name:</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Mail an Management &amp; Teams Aufgabenplaner aktualisiert.</t>
+  </si>
+  <si>
+    <t>02_Product_Backlog.xlsx überarbeitet.</t>
+  </si>
+  <si>
+    <t>An Präsentation für Visions-Präsentation gearbeitet.</t>
   </si>
 </sst>
 </file>
@@ -200,10 +206,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1BBFA-3617-4C66-8A60-3FE210797165}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -637,6 +639,34 @@
         <v>22</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -652,15 +682,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -804,6 +825,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
   <ds:schemaRefs>
@@ -814,14 +844,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4C286-40F8-430F-9A60-A6D20F13F078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -837,4 +859,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B52C2AE-B08E-4022-948B-7BA2C04DFD1A}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3672BD7-9333-4757-8CCB-F3292E2F0540}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5190" windowWidth="29040" windowHeight="15720" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Name:</t>
   </si>
@@ -111,6 +111,30 @@
   </si>
   <si>
     <t>An Präsentation für Visions-Präsentation gearbeitet.</t>
+  </si>
+  <si>
+    <t>Emergency-Meeting</t>
+  </si>
+  <si>
+    <t>Emergency-Meeting abgehalten. (Mail von Management missverstanden)</t>
+  </si>
+  <si>
+    <t>Komplette Projekt-Planung von C++ auf Java umstrukturiert. (Mail von Management missverstanden)</t>
+  </si>
+  <si>
+    <t>Planung von Java wieder auf C++ umgestellt. (Mail von Management missverstanden)</t>
+  </si>
+  <si>
+    <t>Präsentation für Visions-Präsentation am 24.10.2024 mit Christian Kasper vorbereitet.</t>
+  </si>
+  <si>
+    <t>Teilnahme an den anderen Visions-Präsentationen und Präsentation der eigenen Visions-Präsentation.</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>C++ Projekt aufgesetzt und CodeQL Code-Scan des Projekts erstellt.</t>
   </si>
 </sst>
 </file>
@@ -206,6 +230,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,18 +494,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1BBFA-3617-4C66-8A60-3FE210797165}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.28515625" customWidth="1"/>
     <col min="5" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -667,6 +695,104 @@
         <v>23</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>45587</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>45587</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>45588</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>45589</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>45589</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -676,9 +802,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,19 +955,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -862,9 +987,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3672BD7-9333-4757-8CCB-F3292E2F0540}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE0861BD-529A-434B-811E-47E058A6F4BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Name:</t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>C++ Projekt aufgesetzt und CodeQL Code-Scan des Projekts erstellt.</t>
+  </si>
+  <si>
+    <t>Logger implementiert.</t>
+  </si>
+  <si>
+    <t>Weekly-Summup-02 Meeting.</t>
+  </si>
+  <si>
+    <t>Zusammenfassung Weekly-Summup-02 erstellt.</t>
+  </si>
+  <si>
+    <t>Weekly-Summup-03 Meeting</t>
+  </si>
+  <si>
+    <t>Zusammenfassung Weekly-Summup-03 erstellt.</t>
+  </si>
+  <si>
+    <t>Sprint Review #1</t>
+  </si>
+  <si>
+    <t>Gesamt:</t>
+  </si>
+  <si>
+    <t>Meeting mit Gruppe WIFSurvivors bzgl. Standardisierung der Szenen-JSON Datei.</t>
   </si>
 </sst>
 </file>
@@ -494,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1BBFA-3617-4C66-8A60-3FE210797165}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -791,6 +815,113 @@
       </c>
       <c r="D23" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>45593</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>45593</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>45600</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>45600</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>45600</v>
+      </c>
+      <c r="B28" s="2">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>45601</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>45603</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2">
+        <f>SUM(B7:B30)</f>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -811,6 +942,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -954,12 +1091,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
   <ds:schemaRefs>
@@ -969,6 +1100,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4C286-40F8-430F-9A60-A6D20F13F078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -984,13 +1124,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE0861BD-529A-434B-811E-47E058A6F4BB}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDC54630-DA2A-4411-8B63-81B684266765}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Name:</t>
   </si>
@@ -159,6 +159,30 @@
   </si>
   <si>
     <t>Meeting mit Gruppe WIFSurvivors bzgl. Standardisierung der Szenen-JSON Datei.</t>
+  </si>
+  <si>
+    <t>Präsenz-Meeting</t>
+  </si>
+  <si>
+    <t>UML Diagramm grob umgesetzt.</t>
+  </si>
+  <si>
+    <t>Bugfixes implementiert.</t>
+  </si>
+  <si>
+    <t>Sprint Review #2</t>
+  </si>
+  <si>
+    <t>Weekly Meeting #4 - Erste Version des Programm UML Diagramms erstellt.</t>
+  </si>
+  <si>
+    <t>Logo Quellen im Projekt hinterlegt &amp; Möglichkeiten zur Verbesserung der Team-Zusammenarbeit im Projekt mittels GitHub Branches recherchiert.</t>
+  </si>
+  <si>
+    <t>Weekly Meeting #5 Summup erstellt.</t>
+  </si>
+  <si>
+    <t>Weekly Meeting #5 abgehalten.</t>
   </si>
 </sst>
 </file>
@@ -518,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1BBFA-3617-4C66-8A60-3FE210797165}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -915,13 +939,125 @@
         <v>38</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4">
+        <v>45608</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>45613</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>45614</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>45614</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>45614</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>45616</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>45617</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="2">
-        <f>SUM(B7:B30)</f>
-        <v>34</v>
+      <c r="B40" s="2">
+        <f>SUM(B7:B38)</f>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -933,21 +1069,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -1091,15 +1218,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1108,7 +1236,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4C286-40F8-430F-9A60-A6D20F13F078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1124,4 +1252,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDC54630-DA2A-4411-8B63-81B684266765}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6CC4916-6B54-4F8A-9A76-99BB7262C39B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>Name:</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Team:</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -183,6 +180,72 @@
   </si>
   <si>
     <t>Weekly Meeting #5 abgehalten.</t>
+  </si>
+  <si>
+    <t>Sprint Review #5</t>
+  </si>
+  <si>
+    <t>Sprint Review #4</t>
+  </si>
+  <si>
+    <t>Demo Präsentation &amp; Sprint Review #3</t>
+  </si>
+  <si>
+    <t>Product-Release</t>
+  </si>
+  <si>
+    <t>Projektplanung (Product-Backlog, Sprint-Backlogs, …) nachgetragen</t>
+  </si>
+  <si>
+    <t>Weitere TODO's für das Projekt definiert</t>
+  </si>
+  <si>
+    <t>Benötigte Libraries zum Projekt hinzugefügt, CMakesList angepasst, GitHub Actions build Workflows angepasst.</t>
+  </si>
+  <si>
+    <t>Aufbauend auf den Änderungen vom Vortag: CMakesList angepasst, GitHub Actions build Workflows angepasst.</t>
+  </si>
+  <si>
+    <t>GitHub Actions build Workflows in build.yml Workflow zusammengeführt und finalisiert, Kommentare im Projekt angepasst, JSON Parser größtenteils implementiert</t>
+  </si>
+  <si>
+    <t>Bedarfsbesprechung mit Hr. Lunde abgehalten - Fragen gestellt bzgl. Code-Signing Zertifikat, Product-Shipping (.zip od. Wizard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON Parser implementation weiter programmiert, Components (Base, Render, Light, Camera) größtenteils implementiert, </t>
+  </si>
+  <si>
+    <t>JSON Parser unterliegende Ressourcen implementiert (Object-, und Material Ressourcen)</t>
+  </si>
+  <si>
+    <t>Projekt-Struktur und Implementations-Vorgehensweise mit dem Team in Präsenz an der Hochschule besprochen</t>
+  </si>
+  <si>
+    <t>Material-, und Object-Importer angepasst</t>
+  </si>
+  <si>
+    <t>Gedanken zur UI Implementierung und Strukturierung gemacht</t>
+  </si>
+  <si>
+    <t>Grobe UI Struktur in das Projekt implementiert</t>
+  </si>
+  <si>
+    <t>Zu viel zum Auflisten -&gt; Link: https://github.com/lgndluke/RaytRazor/commits/main/?author=lgndluke&amp;since=2024-12-02&amp;until=2024-12-02</t>
+  </si>
+  <si>
+    <t>Shader, Main-Scene und CMakesList angepasst</t>
+  </si>
+  <si>
+    <t>Präsentation für Demo-Präsentations-Meilenstein am 05.12.2024 vorbereitet</t>
+  </si>
+  <si>
+    <t>TODO's bis Projekt-Release mit Team an der Hochschule definiert</t>
+  </si>
+  <si>
+    <t>Changes, die am 13.12.2024 zusammen mit Leon Musliu am Raytracer bzgl. OpenMP gemacht wurden, gemerged -&gt; Neuen Release erstellt für Sprint-Review #4 (0,5h beziehen sich auf Implementations- und Merge-Zeit, wurde am 13.12. nicht gelistet)</t>
+  </si>
+  <si>
+    <t>RayForge (Team 2)</t>
   </si>
 </sst>
 </file>
@@ -244,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -263,6 +326,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -278,10 +356,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1BBFA-3617-4C66-8A60-3FE210797165}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -553,7 +627,7 @@
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="96.28515625" customWidth="1"/>
+    <col min="4" max="4" width="105.42578125" customWidth="1"/>
     <col min="5" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,21 +660,21 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -611,10 +685,10 @@
         <v>1.5</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -625,10 +699,10 @@
         <v>1.5</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,10 +713,10 @@
         <v>1.5</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,10 +727,10 @@
         <v>2.5</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -667,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -681,10 +755,10 @@
         <v>1.25</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -695,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -709,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -723,10 +797,10 @@
         <v>0.5</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -737,10 +811,10 @@
         <v>1.5</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -751,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -765,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -779,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -793,10 +867,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
         <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -807,10 +881,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -821,10 +895,10 @@
         <v>1.5</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -835,10 +909,10 @@
         <v>0.25</v>
       </c>
       <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
         <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -849,10 +923,10 @@
         <v>1.5</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -863,10 +937,10 @@
         <v>0.5</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -877,10 +951,10 @@
         <v>1.5</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -891,10 +965,10 @@
         <v>0.5</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -905,10 +979,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -919,10 +993,10 @@
         <v>1.5</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -933,10 +1007,10 @@
         <v>0.5</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -947,10 +1021,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -961,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -975,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -989,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1003,10 +1077,10 @@
         <v>0.5</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1017,10 +1091,10 @@
         <v>1.5</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,10 +1105,10 @@
         <v>1.5</v>
       </c>
       <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
         <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1045,19 +1119,325 @@
         <v>0.5</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>45618</v>
+      </c>
+      <c r="B39" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
+      <c r="A40" s="4">
+        <v>45619</v>
       </c>
       <c r="B40" s="2">
-        <f>SUM(B7:B38)</f>
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>45621</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>45621</v>
+      </c>
+      <c r="B42" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>45624</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>45624</v>
+      </c>
+      <c r="B44" s="2">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>45625</v>
+      </c>
+      <c r="B45" s="2">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45625</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>45626</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>45627</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>45627</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>45628</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>45630</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>45630</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>45631</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>45639</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>45645</v>
+      </c>
+      <c r="B55" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>45645</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>45300</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>45300</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>45314</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="2">
+        <f>SUM(B7:B64)</f>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1069,12 +1449,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -1218,7 +1592,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1227,16 +1601,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4C286-40F8-430F-9A60-A6D20F13F078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1254,10 +1625,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Jeckle_Lukas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/jecklu01_hs-ulm_de/Documents/5. Semester/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6CC4916-6B54-4F8A-9A76-99BB7262C39B}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="8_{C9F7BCB0-AC8D-48EA-AB1C-78C940CB4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13D3FE61-8FCB-A746-A1B8-D080F8CFE32C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{60F36677-6C43-442F-912E-D347C7303937}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>Name:</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>RayForge (Team 2)</t>
+  </si>
+  <si>
+    <t>Erste Version der GitHub Wiki-Page des Projektes erstellt</t>
   </si>
 </sst>
 </file>
@@ -618,20 +621,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB1BBFA-3617-4C66-8A60-3FE210797165}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="105.42578125" customWidth="1"/>
-    <col min="5" max="256" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="105.5" customWidth="1"/>
+    <col min="5" max="256" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -639,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -647,7 +650,7 @@
         <v>6003331</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -655,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -663,7 +666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -677,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>45574</v>
       </c>
@@ -691,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>45578</v>
       </c>
@@ -705,7 +708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>45579</v>
       </c>
@@ -719,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>45579</v>
       </c>
@@ -733,7 +736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>45586</v>
       </c>
@@ -747,7 +750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>45586</v>
       </c>
@@ -761,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>45586</v>
       </c>
@@ -775,7 +778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>45586</v>
       </c>
@@ -789,7 +792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>45586</v>
       </c>
@@ -803,7 +806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>45586</v>
       </c>
@@ -817,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>45587</v>
       </c>
@@ -831,7 +834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>45587</v>
       </c>
@@ -845,7 +848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>45588</v>
       </c>
@@ -859,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>45588</v>
       </c>
@@ -873,7 +876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>45588</v>
       </c>
@@ -887,7 +890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>45589</v>
       </c>
@@ -901,7 +904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>45589</v>
       </c>
@@ -915,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>45593</v>
       </c>
@@ -929,7 +932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>45593</v>
       </c>
@@ -943,7 +946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>45600</v>
       </c>
@@ -957,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>45600</v>
       </c>
@@ -971,7 +974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>45600</v>
       </c>
@@ -985,7 +988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>45601</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>45603</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>45608</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>45608</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>45613</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>45614</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>45614</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>45614</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>45616</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>45617</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>45618</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>45619</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>45621</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>45621</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>45624</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>45624</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>45625</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>45625</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>45626</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>45627</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>45627</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>45628</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>45630</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>45630</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>45631</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>45639</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A55" s="10">
         <v>45645</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>45645</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>45300</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>45300</v>
       </c>
@@ -1405,22 +1408,30 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="4">
+        <v>45304</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>45314</v>
       </c>
@@ -1431,13 +1442,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B66" s="2">
         <f>SUM(B7:B64)</f>
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1449,6 +1460,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -1592,22 +1618,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4C286-40F8-430F-9A60-A6D20F13F078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1623,21 +1658,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73990B7-24D7-4B3D-A03A-D9C83C8BF00B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F563E5B-E833-4685-AA5F-417D9097CE12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>